--- a/Dataset/MRT Bus Route.xlsx
+++ b/Dataset/MRT Bus Route.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2019\Open Data\Prasarana\Prasarana\2019\Datasets\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\UM SCHOOL\Sem 4\ALGO\Assignment\Assignment Path Finding\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19077918-AB22-4619-9895-CB52D16BF575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C294B29-7A84-4D47-BA48-C251D86C56D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7001,7 +7001,8 @@
   <dimension ref="A1:I1352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A1310" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46224,5 +46225,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dataset/MRT Bus Route.xlsx
+++ b/Dataset/MRT Bus Route.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JasonX\PycharmProjects\Algo-Assignment\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\UM SCHOOL\Sem 4\ALGO\Assignment\Assignment Path Finding\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54879A30-3C1E-4631-80B1-82626754D49E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351CD89F-7F41-47DE-B442-05CDDDD40993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7545" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1676,21 +1676,21 @@
   <dimension ref="A1:I258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>423</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>6</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>26</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>28</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>42</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>0</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>48</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>51</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>53</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>56</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>60</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>64</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>68</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>70</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>72</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>75</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>77</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>79</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>80</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>82</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>84</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>86</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>0</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>90</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>92</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>94</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>95</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>97</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>99</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>101</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>103</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>105</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>107</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>109</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>111</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>113</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>114</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>116</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>117</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>119</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>121</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>123</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>125</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>127</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>129</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>131</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>133</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>135</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>137</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>139</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>141</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>143</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>145</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>147</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>149</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>151</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>153</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>155</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>157</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>159</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>161</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>163</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>165</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>167</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>169</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>171</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>0</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>90</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>92</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>94</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>175</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>177</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>5</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>178</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>180</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>182</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>184</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>186</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>188</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>26</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>171</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>190</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>194</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>196</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>198</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>200</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>202</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>203</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>204</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>206</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>207</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>209</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>211</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>213</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>215</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>217</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>219</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>221</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>223</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>225</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>226</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>228</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>229</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>230</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>231</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>190</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>234</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>236</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>238</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>240</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>242</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>244</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>246</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>248</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>250</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>252</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>253</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>254</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>256</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>260</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>262</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>264</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>266</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>268</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>270</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>272</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>274</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>276</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>277</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>279</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>281</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>282</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>284</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>285</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>287</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>289</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>285</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>293</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>295</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>297</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>299</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>301</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>303</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>305</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>307</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>309</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>311</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>313</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>315</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>317</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>289</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>285</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>321</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>323</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>324</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>325</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>327</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>287</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>289</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>285</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>321</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>323</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>324</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>331</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>333</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>335</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>337</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>339</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>327</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>287</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>341</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>344</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>345</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>346</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>347</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>348</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>349</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>350</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>323</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>351</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>352</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>353</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>354</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>355</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>356</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>357</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>323</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>358</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>359</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>363</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>364</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>366</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>368</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>370</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>372</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>374</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>376</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>378</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>380</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>382</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>384</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>386</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>388</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>390</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>392</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>394</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>396</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>398</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>400</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>402</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>404</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>406</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>408</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>410</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>412</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>414</v>
       </c>
